--- a/storage/test_data/etl/two-worksheets-with-parent.xlsx
+++ b/storage/test_data/etl/two-worksheets-with-parent.xlsx
@@ -292,7 +292,7 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
